--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EHDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D2868-BC32-4D81-A5A6-956F079021A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DB5813-C5B2-45B7-8F2D-71130F899130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Devices</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>STC</t>
-  </si>
-  <si>
-    <t>CHP</t>
   </si>
   <si>
     <t>Yearly  power demand</t>
@@ -96,9 +93,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Grid</t>
-  </si>
-  <si>
     <t>Cost Type</t>
   </si>
   <si>
@@ -109,15 +103,6 @@
   </si>
   <si>
     <t>O&amp;M</t>
-  </si>
-  <si>
-    <t>Electric import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heating import </t>
-  </si>
-  <si>
-    <t>(Fernwärme)</t>
   </si>
   <si>
     <t>Biomass import</t>
@@ -144,19 +129,7 @@
     <t>Onsite</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Total Generated</t>
-  </si>
-  <si>
-    <t>Total Credit Won</t>
-  </si>
-  <si>
     <t>Electricity import</t>
-  </si>
-  <si>
-    <t>Heat import</t>
   </si>
   <si>
     <t>Electricity export</t>
@@ -180,29 +153,44 @@
     <t>Yearly gas export</t>
   </si>
   <si>
-    <t>Maximum gas import</t>
-  </si>
-  <si>
-    <t>Maximum electricity import</t>
-  </si>
-  <si>
     <t>🪵</t>
   </si>
   <si>
-    <t>kW</t>
+    <t>kWh</t>
   </si>
   <si>
-    <t>Kw</t>
+    <t>💶</t>
   </si>
   <si>
-    <t>kWh</t>
+    <t>Total annualized costs</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>TES</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>Heating import</t>
+  </si>
+  <si>
+    <t>Tota generated</t>
+  </si>
+  <si>
+    <t>Total credit won</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,25 +205,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -263,14 +239,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,11 +348,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$3</c:f>
+              <c:f>Data!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HP</c:v>
+                  <c:v>PV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -454,7 +427,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$2:$D$2</c:f>
+              <c:f>Data!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -471,15 +444,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$3:$D$3</c:f>
+              <c:f>Data!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                <c:pt idx="0">
+                  <c:v>5248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,11 +465,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$4</c:f>
+              <c:f>Data!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV</c:v>
+                  <c:v>STC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -574,7 +544,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$2:$D$2</c:f>
+              <c:f>Data!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -591,12 +561,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$4:$D$4</c:f>
+              <c:f>Data!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:pt idx="1">
+                  <c:v>7804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,11 +582,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$5</c:f>
+              <c:f>Data!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>STC</c:v>
+                  <c:v>HP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -691,7 +661,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$2:$D$2</c:f>
+              <c:f>Data!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -708,12 +678,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$5:$D$5</c:f>
+              <c:f>Data!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +702,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$6</c:f>
+              <c:f>Data!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CHP</c:v>
+                  <c:v>EB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,7 +781,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$2:$D$2</c:f>
+              <c:f>Data!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -825,15 +798,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$6:$D$6</c:f>
+              <c:f>Data!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>33560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1109,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$E$2</c:f>
+              <c:f>Data!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1286,41 +1256,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$3:$A$6</c:f>
+              <c:f>Data!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>STC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>HP</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>PV</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>STC</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>CHP</c:v>
+                  <c:v>EB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$3:$E$6</c:f>
+              <c:f>Data!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10250.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>19299.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>16668.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1696,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$14:$A$20</c:f>
+              <c:f>Data!$G$2:$G$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1739,10 +1709,10 @@
                   <c:v>CO2 Tax</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Electric import</c:v>
+                  <c:v>Electricity import</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Heating import </c:v>
+                  <c:v>Heating import</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Gas import</c:v>
@@ -1755,27 +1725,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$14:$B$20</c:f>
+              <c:f>Data!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>15706</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,12 +1941,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$B$23</c:f>
+              <c:f>Data!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Size</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2080,6 +2041,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0833-4FCE-A657-B9D77338EE66}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2139,7 +2105,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$24:$A$28</c:f>
+              <c:f>Data!$J$2:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2155,32 +2121,17 @@
                   <c:v>Biomass import</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Heat import</c:v>
+                  <c:v>Gas import</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$24:$B$28</c:f>
+              <c:f>Data!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2364,12 +2315,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$B$23</c:f>
+              <c:f>Data!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Size</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2471,7 +2419,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$30:$A$31</c:f>
+              <c:f>Data!$J$8:$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2485,16 +2433,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$30:$B$31</c:f>
+              <c:f>Data!$K$8:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2680,11 +2622,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$33</c:f>
+              <c:f>Data!$J$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Generated</c:v>
+                  <c:v>Tota generated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2701,7 +2643,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$13</c:f>
+              <c:f>Data!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2712,13 +2654,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$33</c:f>
+              <c:f>Data!$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2733,11 +2672,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$34</c:f>
+              <c:f>Data!$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Credit Won</c:v>
+                  <c:v>Total credit won</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2754,7 +2693,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$13</c:f>
+              <c:f>Data!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2765,13 +2704,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$34</c:f>
+              <c:f>Data!$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2846,6 +2782,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1644439360"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -2893,6 +2830,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1644437920"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6366,7 +6304,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>23688</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6402,7 +6340,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>18332</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6809,10 +6747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="M2:Q26"/>
+  <dimension ref="M2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6827,265 +6765,249 @@
     <col min="12" max="12" width="1.81640625" customWidth="1"/>
     <col min="13" max="13" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.81640625" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>18673</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>39501</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>1076</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="1">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>5248</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="1">
         <f>ROUND(O6/O2, 2)</f>
-        <v>0.7</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>42578</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="1">
         <f>ROUND(O7/O3, 2)</f>
-        <v>5.75</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>1076</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="1">
         <f>ROUND(O8/O4, 2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="13:17" x14ac:dyDescent="0.35">
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>48808</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="2">
         <f>ROUND(O10/O2, 2)</f>
-        <v>0.1</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="11" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="2">
         <f>ROUND(O11/O3, 2)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="13:17" x14ac:dyDescent="0.35">
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="1">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="3">
         <f>ROUND(O13/O2, 2)</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="5">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="3">
         <f>ROUND(O14/O3, 2)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M18" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18">
+        <v>20914</v>
+      </c>
+      <c r="P18" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.35">
-      <c r="M19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.35">
-      <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.35">
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" t="s">
-        <v>45</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.35">
-      <c r="M23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" t="s">
-        <v>52</v>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24">
+        <v>48808</v>
+      </c>
+      <c r="P24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="1"/>
+        <v>34</v>
+      </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M26" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="1"/>
+        <v>35</v>
+      </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28">
+        <v>1000</v>
+      </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7096,235 +7018,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9242628E-1B3E-4F3F-A0EC-93378B23421C}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5248</v>
+      </c>
+      <c r="E2">
+        <v>10250.66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>3925</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7804</v>
+      </c>
+      <c r="E3">
+        <v>19299.46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>1108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1214</v>
+      </c>
+      <c r="D4">
+        <v>1076</v>
+      </c>
+      <c r="E4">
+        <v>16668.96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>33560</v>
+      </c>
+      <c r="E5">
+        <v>453</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>15706</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="6">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="6">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <f>SUM(B24:B28)</f>
-        <v>891</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <f>SUM(B30:B31)</f>
-        <v>130</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
